--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject_eveng\ERP_Hybrid\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D36B8061-015B-4E2E-A06E-43B7CDF6E2C1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DF0CCB8D-0B3E-4C8D-B121-D33436223EBC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="14476" windowWidth="22695" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
-    <sheet name="ApplicationLogin" r:id="rId1" sheetId="1"/>
-    <sheet name="MasterTestCases" r:id="rId2" sheetId="2"/>
+    <sheet name="MasterTestCases" r:id="rId1" sheetId="2"/>
+    <sheet name="Stockcategory" r:id="rId2" sheetId="6"/>
+    <sheet name="Supplier" r:id="rId3" sheetId="4"/>
+    <sheet name="Customer" r:id="rId4" sheetId="5"/>
+    <sheet name="ApplicationLogin" r:id="rId5" sheetId="1"/>
+    <sheet name="Stockcategory1" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="140">
   <si>
     <t>Description</t>
   </si>
@@ -111,9 +115,6 @@
     <t xml:space="preserve">id </t>
   </si>
   <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
     <t>Wait for logout link</t>
   </si>
   <si>
@@ -123,76 +124,343 @@
     <t>Validate Page Title</t>
   </si>
   <si>
+    <t xml:space="preserve">Click logout button </t>
+  </si>
+  <si>
+    <t>validateTitle</t>
+  </si>
+  <si>
+    <t>close App Browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>ModuleStatus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>ApplicationLogin</t>
+  </si>
+  <si>
+    <t>Stockcategory</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Wait for stock items</t>
+  </si>
+  <si>
+    <t>mouse click to stock items</t>
+  </si>
+  <si>
+    <t>Wait for Add +icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Click for Add+icon</t>
+  </si>
+  <si>
+    <t>Wait for Category Name</t>
+  </si>
+  <si>
+    <t>x_Category_Name</t>
+  </si>
+  <si>
+    <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>Baby And Kids</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[contains(normalize-space(),'OK!')]</t>
+  </si>
+  <si>
+    <t>click confirm ok button</t>
+  </si>
+  <si>
+    <t>Wait for Alert ok button</t>
+  </si>
+  <si>
+    <t>WaitforElement</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'OK')]</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>Valiate category table</t>
+  </si>
+  <si>
+    <t>categoryTable</t>
+  </si>
+  <si>
+    <t>mouseClick</t>
+  </si>
+  <si>
+    <t>Click Add Button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>captureSnumber</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Validate table</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>Wait for Add + Icon</t>
+  </si>
+  <si>
+    <t>Click on Add + icon</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>Capture Supplier Number</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Enter city</t>
+  </si>
+  <si>
+    <t>Enter country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Wait for Customers link</t>
+  </si>
+  <si>
+    <t>Click customers link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for customer number</t>
+  </si>
+  <si>
+    <t>Capture customer Number</t>
+  </si>
+  <si>
+    <t>Enter customer name</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(),'Stock Items')]</t>
+  </si>
+  <si>
+    <t>openUrl</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Flat 98,Mathura Road,Chennai</t>
+  </si>
+  <si>
+    <t>Adyar</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Srividya</t>
+  </si>
+  <si>
+    <t>Sri@gmail.com</t>
+  </si>
+  <si>
+    <t>Supplying Nokia Goods</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>4,George Street,chennai</t>
+  </si>
+  <si>
+    <t>captureCnumber</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
     <t>Dashboard « Stock Accounting</t>
   </si>
   <si>
-    <t xml:space="preserve">Click logout button </t>
-  </si>
-  <si>
-    <t xml:space="preserve">openUrl </t>
-  </si>
-  <si>
-    <t>validateTitle</t>
-  </si>
-  <si>
-    <t>close App Browser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>TCID</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
-  </si>
-  <si>
-    <t>ModuleStatus</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>ApplicationLogin</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Stockcategory</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Purchases</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>//button[@id='btnsubmit']</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>Customer goods supplied</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Navigate Url in browser</t>
+  </si>
+  <si>
+    <t>Wait for Username</t>
+  </si>
+  <si>
+    <t>//input[@id="password"]</t>
+  </si>
+  <si>
+    <t>Click Login button</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()="OK!"]</t>
+  </si>
+  <si>
+    <t>(//button[contains(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(),'Stock Items ')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Category Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Category Name </t>
+  </si>
+  <si>
+    <t>BabyAndkids</t>
+  </si>
+  <si>
+    <t>Validate category table</t>
+  </si>
+  <si>
+    <t>Blocked</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
@@ -200,10 +468,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="67" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,134 +500,24 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFE8EAED"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -350,6 +528,342 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
       <b val="true"/>
     </font>
@@ -366,15 +880,21 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -382,17 +902,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -413,8 +961,49 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -726,11 +1315,1667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B4B8F-4875-494F-BDEC-DCB5B7CE296D}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="20.1328125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s" s="63">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s" s="64">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s" s="65">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="66">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A122E7D-B88B-4107-9FB9-F73DE81B6981}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="54.59765625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="60.6640625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row ht="21" r="1" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row ht="15.75" r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="8">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="10">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="16">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="18">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="20">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s" s="22">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s" s="26">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="28">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s" s="30">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s" s="32">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s" s="34">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s" s="36">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s" s="38">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s" s="40">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="s" s="42">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s" s="44">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" t="s" s="46">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" t="s" s="48">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" t="s" s="50">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" t="s" s="52">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" t="s" s="54">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="26" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" t="s" s="56">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="27" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" t="s" s="58">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="28" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" t="s" s="60">
+        <v>139</v>
+      </c>
+    </row>
+    <row ht="15.75" r="29" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" t="s" s="62">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90C4379-E5E3-4788-8491-9D265205DF26}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.46484375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="43.59765625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="25.46484375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="34.06640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="37.19921875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>9876543210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E20" xr:uid="{63F21C0E-2897-4CFD-AA18-385EC6F16243}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB88BF-9EAE-45ED-ADDB-7C533F030581}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="29.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.3984375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="27.265625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="52.53125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="30.59765625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>5647898807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>9876768765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E20" xr:uid="{1BDC6DE6-4BD9-401E-9B44-2770F9BB0ED8}"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -778,16 +3023,13 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>50</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -797,9 +3039,6 @@
       </c>
       <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s" s="4">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -818,9 +3057,6 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="6">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -838,9 +3074,6 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="8">
-        <v>50</v>
-      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -858,9 +3091,6 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s" s="10">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -870,21 +3100,18 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -893,21 +3120,18 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="14">
-        <v>50</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -915,16 +3139,13 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s" s="16">
-        <v>50</v>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -933,21 +3154,18 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="F10" t="s" s="18">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -957,9 +3175,6 @@
       </c>
       <c r="E11" t="s">
         <v>8</v>
-      </c>
-      <c r="F11" t="s" s="20">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -968,106 +3183,366 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459B4B8F-4875-494F-BDEC-DCB5B7CE296D}">
-  <dimension ref="A1:E6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100D0654-D8F4-419D-BDA7-A186FA628734}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="20.1328125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="14.796875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="31.73046875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.86328125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="23.86328125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="42.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="27.86328125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s" s="21">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s" s="22">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s" s="23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s" s="24">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s" s="25">
-        <v>51</v>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liveproject_eveng\ERP_Hybrid\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DF0CCB8D-0B3E-4C8D-B121-D33436223EBC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7FBCA5F4-44BC-4CCC-AEFE-4B6AF74C9A3A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="14476" windowWidth="22695" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView activeTab="3" tabRatio="698" windowHeight="14476" windowWidth="22695" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" r:id="rId1" sheetId="2"/>
     <sheet name="Stockcategory" r:id="rId2" sheetId="6"/>
     <sheet name="Supplier" r:id="rId3" sheetId="4"/>
-    <sheet name="Customer" r:id="rId4" sheetId="5"/>
-    <sheet name="ApplicationLogin" r:id="rId5" sheetId="1"/>
+    <sheet name="ApplicationLogin" r:id="rId4" sheetId="1"/>
+    <sheet name="Customer" r:id="rId5" sheetId="5"/>
     <sheet name="Stockcategory1" r:id="rId6" sheetId="3"/>
+    <sheet name="Purchases" r:id="rId7" sheetId="7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="152">
   <si>
     <t>Description</t>
   </si>
@@ -457,10 +458,46 @@
     <t>Validate category table</t>
   </si>
   <si>
+    <t>(//a[normalize-space()='Purchases'])[2]</t>
+  </si>
+  <si>
+    <t>Wait for Purchase link</t>
+  </si>
+  <si>
+    <t>Click Purchase link</t>
+  </si>
+  <si>
+    <t>Wait for Purchase number</t>
+  </si>
+  <si>
+    <t>Capture Purchase Number</t>
+  </si>
+  <si>
+    <t>capturePnumber</t>
+  </si>
+  <si>
+    <t>x_Purchase_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Purchase_Date']</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Supplier_ID']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Total_Amount']</t>
+  </si>
+  <si>
+    <t>x_Total_Payment</t>
+  </si>
+  <si>
+    <t>x_Total_Balance</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -468,7 +505,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,228 +555,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -879,6 +694,12 @@
       <color indexed="12"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -933,7 +754,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="1"/>
@@ -965,42 +786,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1319,7 +1104,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1350,10 +1135,10 @@
         <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s" s="7">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="D2" t="s" s="26">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1364,10 +1149,10 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s" s="63">
-        <v>139</v>
+        <v>125</v>
+      </c>
+      <c r="D3" t="s" s="27">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1380,8 +1165,8 @@
       <c r="C4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" t="s" s="64">
-        <v>138</v>
+      <c r="D4" t="s" s="28">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1394,8 +1179,8 @@
       <c r="C5" t="s">
         <v>125</v>
       </c>
-      <c r="D5" t="s" s="65">
-        <v>138</v>
+      <c r="D5" t="s" s="29">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1408,8 +1193,8 @@
       <c r="C6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s" s="66">
-        <v>138</v>
+      <c r="D6" t="s" s="30">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A122E7D-B88B-4107-9FB9-F73DE81B6981}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1469,9 +1254,7 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s" s="8">
-        <v>139</v>
-      </c>
+      <c r="F2" s="5"/>
     </row>
     <row ht="15.75" r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
@@ -1489,9 +1272,7 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>139</v>
-      </c>
+      <c r="F3" s="5"/>
     </row>
     <row ht="15.75" r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="5" t="s">
@@ -1509,9 +1290,7 @@
       <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>139</v>
-      </c>
+      <c r="F4" s="5"/>
     </row>
     <row ht="15.75" r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="5" t="s">
@@ -1529,9 +1308,7 @@
       <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s" s="14">
-        <v>139</v>
-      </c>
+      <c r="F5" s="5"/>
     </row>
     <row ht="15.75" r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="5" t="s">
@@ -1549,9 +1326,7 @@
       <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s" s="16">
-        <v>139</v>
-      </c>
+      <c r="F6" s="5"/>
     </row>
     <row ht="15.75" r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
@@ -1569,9 +1344,7 @@
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s" s="18">
-        <v>139</v>
-      </c>
+      <c r="F7" s="5"/>
     </row>
     <row ht="15.75" r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="5" t="s">
@@ -1589,9 +1362,7 @@
       <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="20">
-        <v>139</v>
-      </c>
+      <c r="F8" s="5"/>
     </row>
     <row ht="15.75" r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="5" t="s">
@@ -1609,9 +1380,7 @@
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s" s="22">
-        <v>139</v>
-      </c>
+      <c r="F9" s="5"/>
     </row>
     <row ht="15.75" r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="5" t="s">
@@ -1629,9 +1398,7 @@
       <c r="E10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="24">
-        <v>139</v>
-      </c>
+      <c r="F10" s="5"/>
     </row>
     <row ht="15.75" r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="5" t="s">
@@ -1649,9 +1416,7 @@
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s" s="26">
-        <v>139</v>
-      </c>
+      <c r="F11" s="5"/>
     </row>
     <row ht="15.75" r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="5" t="s">
@@ -1669,9 +1434,7 @@
       <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="28">
-        <v>139</v>
-      </c>
+      <c r="F12" s="5"/>
     </row>
     <row ht="15.75" r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="5" t="s">
@@ -1689,9 +1452,7 @@
       <c r="E13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F13" t="s" s="30">
-        <v>139</v>
-      </c>
+      <c r="F13" s="5"/>
     </row>
     <row ht="15.75" r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
@@ -1709,9 +1470,7 @@
       <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s" s="32">
-        <v>139</v>
-      </c>
+      <c r="F14" s="5"/>
     </row>
     <row ht="15.75" r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="5" t="s">
@@ -1729,9 +1488,7 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="34">
-        <v>139</v>
-      </c>
+      <c r="F15" s="5"/>
     </row>
     <row ht="15.75" r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="5" t="s">
@@ -1749,9 +1506,7 @@
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s" s="36">
-        <v>139</v>
-      </c>
+      <c r="F16" s="5"/>
     </row>
     <row ht="15.75" r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="5" t="s">
@@ -1769,9 +1524,7 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="38">
-        <v>139</v>
-      </c>
+      <c r="F17" s="5"/>
     </row>
     <row ht="15.75" r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="5" t="s">
@@ -1789,9 +1542,7 @@
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s" s="40">
-        <v>139</v>
-      </c>
+      <c r="F18" s="5"/>
     </row>
     <row ht="15.75" r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" s="5" t="s">
@@ -1809,9 +1560,7 @@
       <c r="E19" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F19" t="s" s="42">
-        <v>139</v>
-      </c>
+      <c r="F19" s="5"/>
     </row>
     <row ht="15.75" r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" s="5" t="s">
@@ -1829,9 +1578,7 @@
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s" s="44">
-        <v>139</v>
-      </c>
+      <c r="F20" s="5"/>
     </row>
     <row ht="15.75" r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="5"/>
@@ -1839,9 +1586,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" t="s" s="46">
-        <v>139</v>
-      </c>
+      <c r="F21" s="5"/>
     </row>
     <row ht="15.75" r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="5"/>
@@ -1849,9 +1594,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" t="s" s="48">
-        <v>139</v>
-      </c>
+      <c r="F22" s="5"/>
     </row>
     <row ht="15.75" r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="5"/>
@@ -1859,9 +1602,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" t="s" s="50">
-        <v>139</v>
-      </c>
+      <c r="F23" s="5"/>
     </row>
     <row ht="15.75" r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
@@ -1869,9 +1610,7 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" t="s" s="52">
-        <v>139</v>
-      </c>
+      <c r="F24" s="5"/>
     </row>
     <row ht="15.75" r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="5"/>
@@ -1879,9 +1618,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" t="s" s="54">
-        <v>139</v>
-      </c>
+      <c r="F25" s="5"/>
     </row>
     <row ht="15.75" r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="5"/>
@@ -1889,9 +1626,7 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" t="s" s="56">
-        <v>139</v>
-      </c>
+      <c r="F26" s="5"/>
     </row>
     <row ht="15.75" r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A27" s="5"/>
@@ -1899,9 +1634,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" t="s" s="58">
-        <v>139</v>
-      </c>
+      <c r="F27" s="5"/>
     </row>
     <row ht="15.75" r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" s="5"/>
@@ -1909,9 +1642,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" t="s" s="60">
-        <v>139</v>
-      </c>
+      <c r="F28" s="5"/>
     </row>
     <row ht="15.75" r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" s="5"/>
@@ -1919,9 +1650,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" t="s" s="62">
-        <v>139</v>
-      </c>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2450,11 +2179,254 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="22.3984375" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="24.1328125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="23.6640625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s" s="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" t="s" s="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s" s="25">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB88BF-9EAE-45ED-ADDB-7C533F030581}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A12" sqref="A12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2967,219 +2939,6 @@
     <hyperlink r:id="rId1" ref="E20" xr:uid="{1BDC6DE6-4BD9-401E-9B44-2770F9BB0ED8}"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A2:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="22.3984375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="20.33203125" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="24.1328125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="23.6640625" collapsed="false"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3545,4 +3304,295 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F3FFBA-9E63-4F80-8645-2DB5AF279F36}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.796875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="23.9296875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="20.46484375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="36.265625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="14.3984375" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>